--- a/FinalQA Project/Birds habitat.xlsx
+++ b/FinalQA Project/Birds habitat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladi\source\repos\FinalQA Project\FinalQA Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladi\Source\Repos\FinalQA Project\FinalQA Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A4F8EE-CB7A-47D1-A689-A7F9D7259547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4829A49-1B99-46D0-AF2D-89DA8246846C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3636" yWindow="3276" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Birds" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>Length</t>
   </si>
@@ -74,6 +74,51 @@
   </si>
   <si>
     <t>Breast Color</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>d1a2s</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>adsa2</t>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>12c</t>
+  </si>
+  <si>
+    <t>das</t>
+  </si>
+  <si>
+    <t>sda1</t>
+  </si>
+  <si>
+    <t>dsa</t>
+  </si>
+  <si>
+    <t>asd</t>
   </si>
 </sst>
 </file>
@@ -109,8 +154,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -447,6 +493,181 @@
         <v>14</v>
       </c>
     </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1232</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1">
+        <v>45061.766585648147</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2">
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>123</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1">
+        <v>45061.801041666666</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>1232</v>
+      </c>
+      <c r="H3">
+        <v>1232</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>123111</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1">
+        <v>45061.869386574072</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>123112</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1">
+        <v>45061.869756944441</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5">
+        <v>11</v>
+      </c>
+      <c r="H5">
+        <v>111</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>122</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1">
+        <v>45061.871377314812</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>123</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -454,7 +675,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A4950E8-1EF4-4576-9779-7941681CF811}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -486,6 +707,23 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FinalQA Project/Birds habitat.xlsx
+++ b/FinalQA Project/Birds habitat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladi\Source\Repos\FinalQA Project\FinalQA Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladi\source\repos\FinalQA Project\FinalQA Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4829A49-1B99-46D0-AF2D-89DA8246846C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71765D1F-4865-4DEC-966A-4F8FD722BA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3636" yWindow="3276" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Birds" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
   <si>
     <t>Length</t>
   </si>
@@ -88,9 +88,6 @@
     <t>s</t>
   </si>
   <si>
-    <t>a1</t>
-  </si>
-  <si>
     <t>adsa2</t>
   </si>
   <si>
@@ -119,6 +116,18 @@
   </si>
   <si>
     <t>asd</t>
+  </si>
+  <si>
+    <t>American Gouldian</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>1a</t>
+  </si>
+  <si>
+    <t>a11</t>
   </si>
 </sst>
 </file>
@@ -156,7 +165,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,25 +446,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.8984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.69921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.19921875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -468,7 +477,7 @@
       <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E1" t="s">
@@ -545,7 +554,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G3">
         <v>1232</v>
@@ -568,19 +577,19 @@
         <v>123111</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4" s="1">
         <v>45061.869386574072</v>
       </c>
       <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
         <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
       </c>
       <c r="G4">
         <v>11</v>
@@ -603,10 +612,10 @@
         <v>123112</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1">
         <v>45061.869756944441</v>
@@ -615,7 +624,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -624,13 +633,13 @@
         <v>111</v>
       </c>
       <c r="I5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" t="s">
         <v>29</v>
       </c>
-      <c r="J5" t="s">
-        <v>30</v>
-      </c>
       <c r="K5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -638,19 +647,19 @@
         <v>122</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1">
         <v>45061.871377314812</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6">
         <v>12</v>
@@ -668,26 +677,62 @@
         <v>1</v>
       </c>
     </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="1">
+        <v>45062</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7">
+        <v>111</v>
+      </c>
+      <c r="H7">
+        <v>1111</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A4950E8-1EF4-4576-9779-7941681CF811}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -709,19 +754,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>21</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/FinalQA Project/Birds habitat.xlsx
+++ b/FinalQA Project/Birds habitat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladi\source\repos\FinalQA Project\FinalQA Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaiso\OneDrive\Desktop\Birds_Habitat-master\Birds_Habitat-master\FinalQA Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71765D1F-4865-4DEC-966A-4F8FD722BA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924C606C-BE54-4D60-9B60-BFEFF22AD788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4344" yWindow="2016" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Birds" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="49">
   <si>
     <t>Length</t>
   </si>
@@ -82,12 +82,6 @@
     <t>Female</t>
   </si>
   <si>
-    <t>d1a2s</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>adsa2</t>
   </si>
   <si>
@@ -109,15 +103,6 @@
     <t>das</t>
   </si>
   <si>
-    <t>sda1</t>
-  </si>
-  <si>
-    <t>dsa</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
     <t>American Gouldian</t>
   </si>
   <si>
@@ -127,7 +112,67 @@
     <t>1a</t>
   </si>
   <si>
-    <t>a11</t>
+    <t>123ab</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>16/05/2023 0:00:00</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>South America</t>
+  </si>
+  <si>
+    <t>15/05/2023 19:13:30</t>
+  </si>
+  <si>
+    <t>Australian Gouldian</t>
+  </si>
+  <si>
+    <t>Central Australia</t>
+  </si>
+  <si>
+    <t>15/05/2023 20:52:27</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>European Gouldian</t>
+  </si>
+  <si>
+    <t>Western Europe</t>
+  </si>
+  <si>
+    <t>15/05/2023 18:23:53</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>Lilac</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Central America</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>123ac</t>
   </si>
 </sst>
 </file>
@@ -138,7 +183,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -446,28 +491,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.69921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -502,94 +547,94 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1232</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1">
-        <v>45061.766585648147</v>
+        <v>39</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>12345</v>
       </c>
       <c r="H2">
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1">
-        <v>45061.801041666666</v>
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G3">
         <v>1232</v>
       </c>
       <c r="H3">
-        <v>1232</v>
+        <v>12325</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>123111</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1">
         <v>45061.869386574072</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G4">
         <v>11</v>
@@ -607,24 +652,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>123112</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="1">
-        <v>45061.869756944441</v>
+        <v>35</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -633,33 +678,33 @@
         <v>111</v>
       </c>
       <c r="I5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>122</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1">
         <v>45061.871377314812</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G6">
         <v>12</v>
@@ -677,24 +722,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="1">
-        <v>45062</v>
-      </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G7">
         <v>111</v>
@@ -703,13 +748,153 @@
         <v>1111</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="K7" t="s">
-        <v>16</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1234555</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8">
+        <v>2001</v>
+      </c>
+      <c r="H8">
+        <v>2002</v>
+      </c>
+      <c r="I8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>123412345</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="1">
+        <v>45062</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9">
+        <v>12312</v>
+      </c>
+      <c r="H9">
+        <v>12311</v>
+      </c>
+      <c r="I9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>123456789</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1">
+        <v>45062</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>123</v>
+      </c>
+      <c r="I10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1234455</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="1">
+        <v>45062</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11">
+        <v>1234</v>
+      </c>
+      <c r="H11">
+        <v>1245</v>
+      </c>
+      <c r="I11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -720,22 +905,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -752,9 +937,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -766,7 +951,41 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/FinalQA Project/Birds habitat.xlsx
+++ b/FinalQA Project/Birds habitat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaiso\OneDrive\Desktop\Birds_Habitat-master\Birds_Habitat-master\FinalQA Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladi\source\repos\FinalQA Project\FinalQA Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924C606C-BE54-4D60-9B60-BFEFF22AD788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2349668-40A5-48B4-8CBA-60994A58628F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4344" yWindow="2016" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3984" yWindow="3276" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Birds" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="50">
   <si>
     <t>Length</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>123ac</t>
+  </si>
+  <si>
+    <t>cccc1</t>
   </si>
 </sst>
 </file>
@@ -183,7 +186,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -493,26 +496,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.19921875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -547,7 +550,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1232</v>
       </c>
@@ -582,7 +585,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>123</v>
       </c>
@@ -617,7 +620,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>123111</v>
       </c>
@@ -652,7 +655,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>123112</v>
       </c>
@@ -687,7 +690,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>122</v>
       </c>
@@ -722,7 +725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -757,7 +760,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1234555</v>
       </c>
@@ -792,7 +795,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>123412345</v>
       </c>
@@ -827,7 +830,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>123456789</v>
       </c>
@@ -862,7 +865,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1234455</v>
       </c>
@@ -907,20 +910,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -937,7 +940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -954,26 +957,26 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -985,7 +988,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/FinalQA Project/Birds habitat.xlsx
+++ b/FinalQA Project/Birds habitat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladi\source\repos\FinalQA Project\FinalQA Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2349668-40A5-48B4-8CBA-60994A58628F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C0EAC9-D77C-4D9B-B8D5-6FFD398ED66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3984" yWindow="3276" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4332" yWindow="3276" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Birds" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Length</t>
   </si>
@@ -76,106 +76,49 @@
     <t>Breast Color</t>
   </si>
   <si>
-    <t>a</t>
+    <t>1a</t>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>European Gouldian</t>
+  </si>
+  <si>
+    <t>Western Europe</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>123a</t>
+  </si>
+  <si>
+    <t>American Gouldian</t>
+  </si>
+  <si>
+    <t>Central America</t>
   </si>
   <si>
     <t>Female</t>
   </si>
   <si>
-    <t>adsa2</t>
-  </si>
-  <si>
-    <t>Iron</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>12c</t>
-  </si>
-  <si>
-    <t>das</t>
-  </si>
-  <si>
-    <t>American Gouldian</t>
-  </si>
-  <si>
-    <t>North America</t>
-  </si>
-  <si>
-    <t>1a</t>
-  </si>
-  <si>
-    <t>123ab</t>
-  </si>
-  <si>
-    <t>Wood</t>
-  </si>
-  <si>
-    <t>16/05/2023 0:00:00</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>South America</t>
-  </si>
-  <si>
-    <t>15/05/2023 19:13:30</t>
-  </si>
-  <si>
-    <t>Australian Gouldian</t>
-  </si>
-  <si>
-    <t>Central Australia</t>
-  </si>
-  <si>
-    <t>15/05/2023 20:52:27</t>
-  </si>
-  <si>
     <t>Black</t>
   </si>
   <si>
-    <t>European Gouldian</t>
-  </si>
-  <si>
-    <t>Western Europe</t>
-  </si>
-  <si>
-    <t>15/05/2023 18:23:53</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>White</t>
+    <t>Purple</t>
   </si>
   <si>
     <t>Yellow</t>
-  </si>
-  <si>
-    <t>Lilac</t>
-  </si>
-  <si>
-    <t>Silver</t>
-  </si>
-  <si>
-    <t>Central America</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>123ac</t>
-  </si>
-  <si>
-    <t>cccc1</t>
   </si>
 </sst>
 </file>
@@ -494,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -552,352 +495,72 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1232</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
+      </c>
+      <c r="D2" s="1">
+        <v>45069</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G2">
-        <v>12345</v>
+        <v>12</v>
       </c>
       <c r="H2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>123</v>
+        <v>123132</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
+      </c>
+      <c r="D3" s="1">
+        <v>45069</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3">
+        <v>11</v>
+      </c>
+      <c r="H3">
+        <v>111</v>
+      </c>
+      <c r="I3" t="s">
         <v>28</v>
       </c>
-      <c r="G3">
-        <v>1232</v>
-      </c>
-      <c r="H3">
-        <v>12325</v>
-      </c>
-      <c r="I3" t="s">
-        <v>43</v>
-      </c>
       <c r="J3" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="K3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>123111</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1">
-        <v>45061.869386574072</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4">
-        <v>11</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>123112</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5">
-        <v>11</v>
-      </c>
-      <c r="H5">
-        <v>111</v>
-      </c>
-      <c r="I5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>122</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="1">
-        <v>45061.871377314812</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6">
-        <v>12</v>
-      </c>
-      <c r="H6">
-        <v>123</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7">
-        <v>111</v>
-      </c>
-      <c r="H7">
-        <v>1111</v>
-      </c>
-      <c r="I7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1234555</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8">
-        <v>2001</v>
-      </c>
-      <c r="H8">
-        <v>2002</v>
-      </c>
-      <c r="I8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>123412345</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="1">
-        <v>45062</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9">
-        <v>12312</v>
-      </c>
-      <c r="H9">
-        <v>12311</v>
-      </c>
-      <c r="I9" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>123456789</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="1">
-        <v>45062</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>123</v>
-      </c>
-      <c r="I10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1234455</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="1">
-        <v>45062</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11">
-        <v>1234</v>
-      </c>
-      <c r="H11">
-        <v>1245</v>
-      </c>
-      <c r="I11" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" t="s">
-        <v>44</v>
-      </c>
-      <c r="K11" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -908,10 +571,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -942,7 +605,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -954,12 +617,12 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -971,24 +634,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
